--- a/DemoProject/src/test/resources/Testdata.xlsx
+++ b/DemoProject/src/test/resources/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9120" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -1005,8 +1005,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1094,7 +1094,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
